--- a/04.database/mysql.xlsx
+++ b/04.database/mysql.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tantq\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thai\github\hoc_tap\04.database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Tạo cơ sở dữ liệu" sheetId="1" r:id="rId1"/>
-    <sheet name="2. Tạo bảng" sheetId="3" r:id="rId2"/>
-    <sheet name="3. Thêm dữ liệu" sheetId="4" r:id="rId3"/>
+    <sheet name="Tổng quát" sheetId="8" r:id="rId1"/>
+    <sheet name="1. Tạo cơ sở dữ liệu" sheetId="1" r:id="rId2"/>
+    <sheet name="2. Tạo bảng" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Thêm dữ liệu" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Cập nhật dữ liệu" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Xóa dữ liệu" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Kết nối PHP - MySQL" sheetId="7" r:id="rId7"/>
+    <sheet name="Bài tập" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
   <si>
     <t>Tạo cơ sở dữ liệu trong MySQL</t>
   </si>
@@ -1519,13 +1524,526 @@
   </si>
   <si>
     <t>Click chọn tab Browser để xem dữ liệu được insert.</t>
+  </si>
+  <si>
+    <t>6. Kết nối PHP - MySQL</t>
+  </si>
+  <si>
+    <t>// Tạo đối tượng mysqli</t>
+  </si>
+  <si>
+    <r>
+      <t>$conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mysqli(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'localhost'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'root'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'vertrigo'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mysqli(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>host: là địa chỉ cài đặt MySQL, thông thường là localhost</t>
+  </si>
+  <si>
+    <t>username: là tên đăng nhập vào MySQL</t>
+  </si>
+  <si>
+    <t>password: mật khẩu đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>// Kiểm tra kết nối thành công hay thất bại</t>
+  </si>
+  <si>
+    <t>// nếu thất bại thì thông báo lỗi</t>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA7700"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;connect_error) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>die</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Kết nối thất bại: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFAA7700"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-&gt;connect_error);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>// Thông báo kết nối thành công</t>
+  </si>
+  <si>
+    <r>
+      <t>echo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Kết nối thành công"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Create database</t>
+  </si>
+  <si>
+    <r>
+      <t>$conn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF414141"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mysqli(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>host</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password, databaseName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>databasename: Tên của CSDL</t>
+  </si>
+  <si>
+    <t>https://freetuts.net/select-du-lieu-mysql-bang-php-536.html</t>
+  </si>
+  <si>
+    <t>1. Vẽ bảng</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Hệ số lương</t>
+  </si>
+  <si>
+    <t>Nguyen Van Vinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +2132,42 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF414141"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008200"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFAA7700"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF1493"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1623,7 +2177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1631,11 +2185,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1651,6 +2220,35 @@
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2672,9 +3270,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
   <sheetData>
@@ -2800,12 +3418,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
@@ -3137,16 +3755,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="B4" sqref="B4:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
@@ -3233,6 +3852,290 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44107</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1111</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="17">
+        <v>44107</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1111</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="17">
+        <v>44107</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1111</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1111</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="19">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44107</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1111</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/04.database/mysql.xlsx
+++ b/04.database/mysql.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thai\github\hoc_tap\04.database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hoc_tap\04.database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
   <si>
     <t>Tạo cơ sở dữ liệu trong MySQL</t>
   </si>
@@ -2018,9 +2018,6 @@
     <t>https://freetuts.net/select-du-lieu-mysql-bang-php-536.html</t>
   </si>
   <si>
-    <t>1. Vẽ bảng</t>
-  </si>
-  <si>
     <t>Mã nhân viên</t>
   </si>
   <si>
@@ -2037,6 +2034,33 @@
   </si>
   <si>
     <t>Nguyen Van Vinh</t>
+  </si>
+  <si>
+    <t>Tùy chọn</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa nhân viên</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>Hủy</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên</t>
+  </si>
+  <si>
+    <t>Thêm</t>
   </si>
 </sst>
 </file>
@@ -2169,15 +2193,33 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2200,11 +2242,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2244,11 +2312,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4013,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4028,34 +4108,44 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1"/>
+      <c r="H2" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="19" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="17">
         <v>44107</v>
@@ -4066,13 +4156,19 @@
       <c r="F4" s="16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="19">
+      <c r="G4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="17">
         <v>44107</v>
@@ -4083,13 +4179,19 @@
       <c r="F5" s="16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="19">
+      <c r="G5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="17">
         <v>44107</v>
@@ -4100,13 +4202,19 @@
       <c r="F6" s="16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="19">
+      <c r="G6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="17">
         <v>44107</v>
@@ -4117,13 +4225,19 @@
       <c r="F7" s="16">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="19">
+      <c r="G7" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="17">
         <v>44107</v>
@@ -4134,8 +4248,124 @@
       <c r="F8" s="16">
         <v>1.2</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/04.database/mysql.xlsx
+++ b/04.database/mysql.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quát" sheetId="8" r:id="rId1"/>
     <sheet name="1. Tạo cơ sở dữ liệu" sheetId="1" r:id="rId2"/>
     <sheet name="2. Tạo bảng" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Thêm dữ liệu" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Cập nhật dữ liệu" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Xóa dữ liệu" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Kết nối PHP - MySQL" sheetId="7" r:id="rId7"/>
-    <sheet name="Bài tập" sheetId="9" r:id="rId8"/>
+    <sheet name="2.1. SELECT" sheetId="12" r:id="rId4"/>
+    <sheet name="3. Thêm dữ liệu" sheetId="4" r:id="rId5"/>
+    <sheet name="4. Cập nhật dữ liệu" sheetId="5" r:id="rId6"/>
+    <sheet name="5. Xóa dữ liệu" sheetId="6" r:id="rId7"/>
+    <sheet name="6. Kết nối PHP - MySQL" sheetId="7" r:id="rId8"/>
+    <sheet name="Bài tập" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
   <si>
     <t>Tạo cơ sở dữ liệu trong MySQL</t>
   </si>
@@ -1502,9 +1503,6 @@
     <t>Thêm dữ liệu</t>
   </si>
   <si>
-    <t>1. Tạo bằng câu lệnh sql</t>
-  </si>
-  <si>
     <t>2. Tạo bằng phpmyadmin</t>
   </si>
   <si>
@@ -2061,13 +2059,364 @@
   </si>
   <si>
     <t>Thêm</t>
+  </si>
+  <si>
+    <t>Câu lệnh DISTINCT trong MySQL được sử dụng kết hợp với câu lệnh SELECT để loại bỏ tất cả các bản ghi trùng lặp và chỉ lấy các bản ghi duy nhất.</t>
+  </si>
+  <si>
+    <t>manv</t>
+  </si>
+  <si>
+    <t>hoten</t>
+  </si>
+  <si>
+    <t>ngaysinh</t>
+  </si>
+  <si>
+    <t>dienthoai</t>
+  </si>
+  <si>
+    <t>hsluong</t>
+  </si>
+  <si>
+    <t>Nguyen Van Vinh123123</t>
+  </si>
+  <si>
+    <t>886963</t>
+  </si>
+  <si>
+    <t>Nguyen Van Vinh - 123</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>nhanvien</t>
+  </si>
+  <si>
+    <t>SELECT nv.hoten,  nv.dienthoai FROM nhanvien nv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DISTINCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nv.hoten,  nv.dienthoai FROM nhanvien nv</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [DISTINCT] </t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    table_references </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WHERE where_condition] </t>
+  </si>
+  <si>
+    <t>[GROUP BY {col_name | expr | position}, ... ]</t>
+  </si>
+  <si>
+    <t>[ORDER BY {col_name | expr | position} [ASC | DESC]</t>
+  </si>
+  <si>
+    <t>[LIMIT {[offset,] row_count | row_count OFFSET offset } ]</t>
+  </si>
+  <si>
+    <t>Điều kiện</t>
+  </si>
+  <si>
+    <t>Gộp nhóm</t>
+  </si>
+  <si>
+    <t>Điều kiện gộp nhóm</t>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
+  </si>
+  <si>
+    <t>Giới hạn</t>
+  </si>
+  <si>
+    <t>1.  DISTINCT</t>
+  </si>
+  <si>
+    <t>2. WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM nhanvien nv </t>
+  </si>
+  <si>
+    <t>Van A</t>
+  </si>
+  <si>
+    <t>Van B</t>
+  </si>
+  <si>
+    <t>Van C</t>
+  </si>
+  <si>
+    <t>Van D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mệnh đề WHERE trong MySQL được sử dụng để chỉ định một điều kiện trong khi lấy dữ liệu </t>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv WHERE manv = 4</t>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv WHERE hsluong &lt; 2.2 OR hsluong &gt; 2.5;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv WHERE hsluong &gt; 2.3 AND ngaysinh &gt;  STR_TO_DATE('10/7/2020', '%m/%d/%Y');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     [HAVING where_condition]</t>
+  </si>
+  <si>
+    <t>3. ORDER BY</t>
+  </si>
+  <si>
+    <t>Mệnh đề ORDER BY trong MySQL được sử dụng để sắp xếp dữ liệu theo thứ tự tăng dần hoặc giảm dần, dựa trên một hoặc nhiều cột</t>
+  </si>
+  <si>
+    <t>Lệnh ASC được sử dụng để sắp xếp tăng dần và DESC được sử dụng để sắp xếp giảm dần</t>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv ORDER BY manv DESC</t>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv ORDER BY dienthoai DESC, hsluong ASC</t>
+  </si>
+  <si>
+    <t>4. LIMIT</t>
+  </si>
+  <si>
+    <r>
+      <t>Mệnh đề </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LIMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> trong MySQL được sử dụng để hạn chế số lượng bản ghi được trả về bởi câu lệnh SELECT.</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT * FROM nhanvien nv ORDER BY dienthoai DESC, hsluong ASC LIMIT 4</t>
+  </si>
+  <si>
+    <t>1. Thêm bằng câu lệnh sql</t>
+  </si>
+  <si>
+    <t>Câu lệnh UPDATE trong MySQL được sử dụng để sửa đổi các bản ghi hiện có trong một bảng.</t>
+  </si>
+  <si>
+    <t>Cú pháp</t>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>column1 = value1, column2 = value2...., columnN = valueN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[condition];</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE nhanvien</t>
+  </si>
+  <si>
+    <t>SET dienthoai = '000000000'</t>
+  </si>
+  <si>
+    <t>WHERE manv = 1;</t>
+  </si>
+  <si>
+    <t>4. Cập nhật dữ liệu</t>
+  </si>
+  <si>
+    <t>5. Xóa dữ liệu</t>
+  </si>
+  <si>
+    <r>
+      <t>Câu lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> trong MySQL được sử dụng để xóa các bản ghi hiện có từ một bảng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006699"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table_name</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE FROM nhanvien</t>
+  </si>
+  <si>
+    <t>WHERE  manv = 7;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,8 +2541,30 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2218,8 +2589,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2268,11 +2651,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2317,18 +2715,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3360,7 +3786,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -3842,10 +4268,1121 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="B15" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="27">
+        <v>1</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="29">
+        <v>44107</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="27">
+        <v>2</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="29">
+        <v>44107</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="27">
+        <v>3</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="29">
+        <v>44107</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="27">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="29">
+        <v>44107</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="27">
+        <v>5</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="29">
+        <v>44107</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="27">
+        <v>6</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="29">
+        <v>45386</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30">
+      <c r="B24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="B33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30">
+      <c r="B44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="27">
+        <v>1</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="27">
+        <v>2</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="29">
+        <v>44109</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="30">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="27">
+        <v>3</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="29">
+        <v>44110</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="30">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="27">
+        <v>4</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="30">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="27">
+        <v>5</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="29">
+        <v>44112</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="30">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="27">
+        <v>6</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="29">
+        <v>44113</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="30">
+      <c r="B53" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="33">
+        <v>4</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="30">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="30">
+      <c r="B57" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="27">
+        <v>1</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="34">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="27">
+        <v>4</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="34">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="27">
+        <v>6</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="29">
+        <v>44113</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="30">
+      <c r="B63" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="27">
+        <v>5</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="35">
+        <v>44112</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="34">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="27">
+        <v>6</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="35">
+        <v>44113</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75">
+      <c r="B71" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30">
+      <c r="B74" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" s="33">
+        <v>6</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="29">
+        <v>44113</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="33">
+        <v>5</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="29">
+        <v>44112</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="30">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" s="33">
+        <v>4</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="30">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="B78" s="33">
+        <v>3</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="29">
+        <v>44110</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="30">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="33">
+        <v>2</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="29">
+        <v>44109</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="30">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="33">
+        <v>1</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30">
+      <c r="B83" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="27">
+        <v>1</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="34">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="27">
+        <v>2</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="29">
+        <v>44109</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="34">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="27">
+        <v>3</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="29">
+        <v>44110</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="34">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="27">
+        <v>5</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="29">
+        <v>44112</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="34">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="27">
+        <v>4</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="34">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="27">
+        <v>6</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="29">
+        <v>44113</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75">
+      <c r="B92" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30">
+      <c r="B94" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" s="27">
+        <v>1</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" s="27">
+        <v>2</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="29">
+        <v>44109</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="30">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="27">
+        <v>3</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="29">
+        <v>44110</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" s="30">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="27">
+        <v>4</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="29">
+        <v>44111</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F98" s="30">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="27">
+        <v>5</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="29">
+        <v>44112</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" s="30">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="27">
+        <v>6</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" s="29">
+        <v>44113</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="30">
+      <c r="B103" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="27">
+        <v>1</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="29">
+        <v>44108</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F104" s="30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="27">
+        <v>2</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D105" s="29">
+        <v>44109</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" s="30">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="27">
+        <v>3</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" s="29">
+        <v>44110</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F106" s="30">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="27">
+        <v>5</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="29">
+        <v>44112</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" s="30">
+        <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:T5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15"/>
@@ -3857,7 +5394,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -3897,37 +5434,37 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3937,31 +5474,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="B3" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="B4" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="B6" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="B2" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="B5" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3973,17 +5606,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3991,12 +5624,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4006,37 +5639,37 @@
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4044,27 +5677,27 @@
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4072,17 +5705,17 @@
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4091,12 +5724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4110,42 +5743,42 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="1"/>
-      <c r="H2" s="23" t="s">
-        <v>136</v>
+      <c r="H2" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="20"/>
+      <c r="G3" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="17">
         <v>44107</v>
@@ -4157,10 +5790,10 @@
         <v>1.2</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -4168,7 +5801,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="17">
         <v>44107</v>
@@ -4180,10 +5813,10 @@
         <v>1.2</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -4191,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="17">
         <v>44107</v>
@@ -4203,10 +5836,10 @@
         <v>1.2</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -4214,7 +5847,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="17">
         <v>44107</v>
@@ -4226,10 +5859,10 @@
         <v>1.2</v>
       </c>
       <c r="G7" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -4237,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="17">
         <v>44107</v>
@@ -4249,112 +5882,114 @@
         <v>1.2</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="14" spans="2:8">
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="32" spans="2:4">
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C18:D18"/>
@@ -4362,8 +5997,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04.database/mysql.xlsx
+++ b/04.database/mysql.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quát" sheetId="8" r:id="rId1"/>
@@ -4270,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5478,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5543,7 +5543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/04.database/mysql.xlsx
+++ b/04.database/mysql.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hoc_tap\04.database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaitq\hoc_tap\04.database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quát" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="206">
   <si>
     <t>Tạo cơ sở dữ liệu trong MySQL</t>
   </si>
@@ -2411,12 +2411,36 @@
   <si>
     <t>WHERE  manv = 7;</t>
   </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Họ tên: Tìm kiếm gần đúng</t>
+  </si>
+  <si>
+    <t>Yêu cầu</t>
+  </si>
+  <si>
+    <t>Năm sinh: Là 1 combobox có sẵn các năm từ 1900 đến năm hiện tại.</t>
+  </si>
+  <si>
+    <t>Số điện thoại: Tương tự họ tên. sau khi nhập giá trị vào input và nhấn tìm kiếm sẽ cho ra kết quả gần đúng</t>
+  </si>
+  <si>
+    <t>Hệ số lương: tìm kiếm hệ số lương nằm trong khoảng.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2563,6 +2587,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2670,7 +2717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2718,15 +2765,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,6 +2793,25 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4355,121 +4412,121 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="26">
         <v>44107</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="27">
+      <c r="B17" s="24">
         <v>2</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="26">
         <v>44107</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <v>3</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="26">
         <v>44107</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="27">
+      <c r="B19" s="24">
         <v>4</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="26">
         <v>44107</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <v>5</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="26">
         <v>44107</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="27">
+      <c r="B21" s="24">
         <v>6</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="26">
         <v>45386</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="27">
         <v>5</v>
       </c>
     </row>
@@ -4479,58 +4536,58 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="25" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4540,42 +4597,42 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="30">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="25" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4599,121 +4656,121 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="30">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45" s="27">
+      <c r="B45" s="24">
         <v>1</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="26">
         <v>44108</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="27">
+      <c r="B46" s="24">
         <v>2</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="26">
         <v>44109</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="27">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="27">
+      <c r="B47" s="24">
         <v>3</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="26">
         <v>44110</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="27">
         <v>2.34</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="27">
+      <c r="B48" s="24">
         <v>4</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="26">
         <v>44111</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="27">
         <v>2.54</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="27">
+      <c r="B49" s="24">
         <v>5</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="26">
         <v>44112</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="27">
         <v>2.44</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="27">
+      <c r="B50" s="24">
         <v>6</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="26">
         <v>44113</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="27">
         <v>5</v>
       </c>
     </row>
@@ -4723,36 +4780,36 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="30">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="33">
+      <c r="B54" s="30">
         <v>4</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="26">
         <v>44111</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="27">
         <v>2.54</v>
       </c>
     </row>
@@ -4762,70 +4819,70 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="30">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="27">
+      <c r="B58" s="24">
         <v>1</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="26">
         <v>44108</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="31">
         <v>2.14</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="27">
+      <c r="B59" s="24">
         <v>4</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="26">
         <v>44111</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F59" s="34">
+      <c r="F59" s="31">
         <v>2.54</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="27">
+      <c r="B60" s="24">
         <v>6</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="26">
         <v>44113</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="31">
         <v>5</v>
       </c>
     </row>
@@ -4835,53 +4892,53 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="30">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="27">
+      <c r="B64" s="24">
         <v>5</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="32">
         <v>44112</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="31">
         <v>2.44</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="B65" s="27">
+      <c r="B65" s="24">
         <v>6</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="32">
         <v>44113</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F65" s="31">
         <v>5</v>
       </c>
     </row>
@@ -4896,7 +4953,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="29" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4906,121 +4963,121 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="30">
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="B75" s="33">
+      <c r="B75" s="30">
         <v>6</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="26">
         <v>44113</v>
       </c>
-      <c r="E75" s="28" t="s">
+      <c r="E75" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="B76" s="33">
+      <c r="B76" s="30">
         <v>5</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="26">
         <v>44112</v>
       </c>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="27">
         <v>2.44</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="B77" s="33">
+      <c r="B77" s="30">
         <v>4</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="26">
         <v>44111</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="27">
         <v>2.54</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="B78" s="33">
+      <c r="B78" s="30">
         <v>3</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="26">
         <v>44110</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F78" s="30">
+      <c r="F78" s="27">
         <v>2.34</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="B79" s="33">
+      <c r="B79" s="30">
         <v>2</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="26">
         <v>44109</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F79" s="30">
+      <c r="F79" s="27">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="B80" s="33">
+      <c r="B80" s="30">
         <v>1</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="26">
         <v>44108</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F80" s="30">
+      <c r="F80" s="27">
         <v>2.14</v>
       </c>
     </row>
@@ -5030,121 +5087,121 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="B84" s="27">
+      <c r="B84" s="24">
         <v>1</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="26">
         <v>44108</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="31">
         <v>2.14</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="B85" s="27">
+      <c r="B85" s="24">
         <v>2</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="26">
         <v>44109</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="31">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="B86" s="27">
+      <c r="B86" s="24">
         <v>3</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="26">
         <v>44110</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="31">
         <v>2.34</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="B87" s="27">
+      <c r="B87" s="24">
         <v>5</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="26">
         <v>44112</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="31">
         <v>2.44</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="B88" s="27">
+      <c r="B88" s="24">
         <v>4</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="26">
         <v>44111</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="31">
         <v>2.54</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="B89" s="27">
+      <c r="B89" s="24">
         <v>6</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="26">
         <v>44113</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="31">
         <v>5</v>
       </c>
     </row>
@@ -5154,7 +5211,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75">
-      <c r="B92" s="32" t="s">
+      <c r="B92" s="29" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5164,121 +5221,121 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="30">
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="F94" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="B95" s="27">
+      <c r="B95" s="24">
         <v>1</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="26">
         <v>44108</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F95" s="30">
+      <c r="F95" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="B96" s="27">
+      <c r="B96" s="24">
         <v>2</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="26">
         <v>44109</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="27">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="27">
+      <c r="B97" s="24">
         <v>3</v>
       </c>
-      <c r="C97" s="28" t="s">
+      <c r="C97" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="26">
         <v>44110</v>
       </c>
-      <c r="E97" s="28" t="s">
+      <c r="E97" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F97" s="30">
+      <c r="F97" s="27">
         <v>2.34</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="27">
+      <c r="B98" s="24">
         <v>4</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="26">
         <v>44111</v>
       </c>
-      <c r="E98" s="28" t="s">
+      <c r="E98" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="27">
         <v>2.54</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="27">
+      <c r="B99" s="24">
         <v>5</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="26">
         <v>44112</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F99" s="30">
+      <c r="F99" s="27">
         <v>2.44</v>
       </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="27">
+      <c r="B100" s="24">
         <v>6</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C100" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="26">
         <v>44113</v>
       </c>
-      <c r="E100" s="28" t="s">
+      <c r="E100" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="F100" s="30">
+      <c r="F100" s="27">
         <v>5</v>
       </c>
     </row>
@@ -5288,87 +5345,87 @@
       </c>
     </row>
     <row r="103" spans="2:6" ht="30">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="E103" s="26" t="s">
+      <c r="E103" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="23" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="27">
+      <c r="B104" s="24">
         <v>1</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="26">
         <v>44108</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="27">
         <v>2.14</v>
       </c>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="27">
+      <c r="B105" s="24">
         <v>2</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="26">
         <v>44109</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="27">
         <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="27">
+      <c r="B106" s="24">
         <v>3</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="26">
         <v>44110</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="27">
         <v>2.34</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="27">
+      <c r="B107" s="24">
         <v>5</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="26">
         <v>44112</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="E107" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F107" s="30">
+      <c r="F107" s="27">
         <v>2.44</v>
       </c>
     </row>
@@ -5478,7 +5535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
@@ -5495,7 +5552,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5555,7 +5612,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5726,11 +5783,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H38"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5741,262 +5796,331 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:11">
       <c r="B1" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:11">
       <c r="B2" s="1"/>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="K3" s="41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="K4" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="K5" s="41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="K6" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75">
+      <c r="B9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="1"/>
+      <c r="E11" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="1"/>
+      <c r="H12" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="19" t="s">
+    <row r="13" spans="2:11">
+      <c r="B13" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G13" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="18">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D14" s="17">
         <v>44107</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E14" s="16">
         <v>1111</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F14" s="16">
         <v>1.2</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="18">
+    <row r="15" spans="2:11">
+      <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D15" s="17">
         <v>44107</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E15" s="16">
         <v>1111</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F15" s="16">
         <v>1.2</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="18">
+    <row r="16" spans="2:11">
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D16" s="17">
         <v>44107</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E16" s="16">
         <v>1111</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F16" s="16">
         <v>1.2</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="18">
+    <row r="17" spans="2:8">
+      <c r="B17" s="18">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D17" s="17">
         <v>44107</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E17" s="16">
         <v>1111</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F17" s="16">
         <v>1.2</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H17" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="18">
+    <row r="18" spans="2:8">
+      <c r="B18" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D18" s="17">
         <v>44107</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E18" s="16">
         <v>1111</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F18" s="16">
         <v>1.2</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G18" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="1" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="C11" t="s">
+    <row r="23" spans="2:8">
+      <c r="C23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="C14" t="s">
+    <row r="24" spans="2:8">
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="C26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" t="s">
+    <row r="27" spans="2:8">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" t="s">
+    <row r="30" spans="2:8">
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="C23" s="21" t="s">
+    <row r="33" spans="2:4">
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D35" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="1" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="C26" t="s">
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="C29" t="s">
+    <row r="39" spans="2:4">
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32" t="s">
+    <row r="42" spans="2:4">
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
+    <row r="45" spans="2:4">
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="21" t="s">
+    <row r="48" spans="2:4">
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D50" s="22" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
